--- a/firstLevel_URL.xlsx
+++ b/firstLevel_URL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\20240506pdf-crawler\20240506clawingPDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CD0F83-7A26-4613-B01A-B7D0C5D2490B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A75FB9E-25B5-41DC-84C0-4788C0069619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10886" yWindow="0" windowWidth="11143" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="total" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
-    <t>http://everyspec.com/ADF/</t>
-  </si>
-  <si>
     <t>URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,6 +146,10 @@
   </si>
   <si>
     <t>http://everyspec.com/AND_SPECS/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://everyspec.com/ADF/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -172,18 +173,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12.1"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -195,7 +197,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -203,21 +205,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -498,222 +518,223 @@
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.0703125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.45" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B4" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B5" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B6" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B27" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B28" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B29" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B30" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B31" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B32" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B33" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B34" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B36" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B37" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B38" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B39" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B40" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B27" r:id="rId1" xr:uid="{43B0030E-0DED-4CC1-83D6-D2F5E6228CEC}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{E6F311D6-27D7-4C3F-BB10-6C37D31F14AC}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{8797339E-9060-42EF-A6FB-669612F2B979}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{006A03EE-CCB7-4030-82EE-ABF15246D1A4}"/>
+    <hyperlink ref="A27" r:id="rId1" xr:uid="{43B0030E-0DED-4CC1-83D6-D2F5E6228CEC}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{E6F311D6-27D7-4C3F-BB10-6C37D31F14AC}"/>
+    <hyperlink ref="A6" r:id="rId3" xr:uid="{8797339E-9060-42EF-A6FB-669612F2B979}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{006A03EE-CCB7-4030-82EE-ABF15246D1A4}"/>
+    <hyperlink ref="A2" r:id="rId5" xr:uid="{9B60BAF3-8F97-4123-AA50-88FF23FCE3D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/firstLevel_URL.xlsx
+++ b/firstLevel_URL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\20240506pdf-crawler\20240506clawingPDF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\20240506clawingPDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A75FB9E-25B5-41DC-84C0-4788C0069619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E81CDF9-AF20-4037-AD1C-AE7243EC6FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="total" sheetId="1" r:id="rId1"/>
@@ -517,212 +517,213 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="48.0703125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="65.73046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.06640625" customWidth="1"/>
+    <col min="3" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="17.649999999999999" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>34</v>
       </c>

--- a/firstLevel_URL.xlsx
+++ b/firstLevel_URL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\20240506clawingPDF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\20240506pdf-crawler\20240506clawingPDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E81CDF9-AF20-4037-AD1C-AE7243EC6FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58DDE01-8DAA-488B-86ED-C92530905E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="total" sheetId="1" r:id="rId1"/>
@@ -88,9 +88,6 @@
     <t>http://everyspec.com/MIL-HDBK/</t>
   </si>
   <si>
-    <t>http://everyspec.com/MIL-PRF/</t>
-  </si>
-  <si>
     <t>http://everyspec.com/MIL-SPECS/</t>
   </si>
   <si>
@@ -150,6 +147,10 @@
   </si>
   <si>
     <t>http://everyspec.com/ADF/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://everyspec.com/MIL-PRF/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -157,7 +158,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +187,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -221,10 +230,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -235,9 +245,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -518,214 +532,214 @@
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="65.73046875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.06640625" customWidth="1"/>
-    <col min="3" max="16384" width="9.1328125" style="1"/>
+    <col min="1" max="1" width="65.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.0703125" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="17.649999999999999" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A27" s="2" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A28" s="2" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A29" s="2" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A30" s="2" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A31" s="2" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A32" s="2" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A33" s="2" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A34" s="2" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A35" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A36" s="2" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A37" s="2" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A38" s="2" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A39" s="2" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A40" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -736,6 +750,7 @@
     <hyperlink ref="A6" r:id="rId3" xr:uid="{8797339E-9060-42EF-A6FB-669612F2B979}"/>
     <hyperlink ref="A5" r:id="rId4" xr:uid="{006A03EE-CCB7-4030-82EE-ABF15246D1A4}"/>
     <hyperlink ref="A2" r:id="rId5" xr:uid="{9B60BAF3-8F97-4123-AA50-88FF23FCE3D8}"/>
+    <hyperlink ref="A25" r:id="rId6" xr:uid="{A430E348-1B2B-4C27-B724-D9079C5173EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/firstLevel_URL.xlsx
+++ b/firstLevel_URL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\20240506pdf-crawler\20240506clawingPDF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\20240506clawingPDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58DDE01-8DAA-488B-86ED-C92530905E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A0FA2F-ACFC-4781-8C82-C8C17A5370D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14317" yWindow="0" windowWidth="14565" windowHeight="15563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="total" sheetId="1" r:id="rId1"/>
@@ -85,9 +85,6 @@
     <t>http://everyspec.com/JAXA/</t>
   </si>
   <si>
-    <t>http://everyspec.com/MIL-HDBK/</t>
-  </si>
-  <si>
     <t>http://everyspec.com/MIL-SPECS/</t>
   </si>
   <si>
@@ -151,6 +148,10 @@
   </si>
   <si>
     <t>http://everyspec.com/MIL-PRF/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://everyspec.com/MIL-HDBK/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,214 +533,214 @@
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="65.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.0703125" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="65.73046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.06640625" customWidth="1"/>
+    <col min="3" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="17.649999999999999" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A37" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A38" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A39" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A40" s="2" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -751,6 +752,7 @@
     <hyperlink ref="A5" r:id="rId4" xr:uid="{006A03EE-CCB7-4030-82EE-ABF15246D1A4}"/>
     <hyperlink ref="A2" r:id="rId5" xr:uid="{9B60BAF3-8F97-4123-AA50-88FF23FCE3D8}"/>
     <hyperlink ref="A25" r:id="rId6" xr:uid="{A430E348-1B2B-4C27-B724-D9079C5173EC}"/>
+    <hyperlink ref="A24" r:id="rId7" xr:uid="{AF3FED04-8073-4862-8F7D-34943938E991}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
